--- a/SoftDrinks.xlsx
+++ b/SoftDrinks.xlsx
@@ -5,17 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hamline-my.sharepoint.com/personal/amehta01_hamline_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annabelmehta/Downloads/Student Data Files/Chapter 02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9C08275-E1F3-9443-B8C8-F9472D02A621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C61626-5838-6F41-85B1-979099946313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="2640" windowWidth="22460" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$26</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$26</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="9">
   <si>
     <t>Coke</t>
   </si>
@@ -54,26 +59,20 @@
     <t>Sample Data</t>
   </si>
   <si>
-    <t xml:space="preserve">Brands </t>
+    <t>Brand</t>
   </si>
   <si>
-    <t xml:space="preserve">Frequency </t>
+    <t>RF</t>
   </si>
   <si>
-    <t xml:space="preserve">Relative Frequency </t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent frequency </t>
-  </si>
-  <si>
-    <t>Cumulative freq</t>
+    <t>PF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +92,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,11 +120,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -141,11 +132,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -450,7 +439,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection sqref="A1:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -675,246 +664,185 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0842A366-362A-8947-84AB-B1FEF6D68098}">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B96FDDD-164D-E54C-9F7B-F50EA3C20F00}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3"/>
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2">
-        <f>COUNTIF($A$1:$B$25,A1)</f>
+        <f>COUNTIF(A2:B26, A2)</f>
         <v>19</v>
       </c>
-      <c r="F2">
-        <f>E2/E7</f>
-        <v>0.38</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E6" si="0">COUNTIF($A$1:$B$25,A2)</f>
+        <f t="shared" ref="E3:E6" si="0">COUNTIF(A3:B27, A3)</f>
         <v>8</v>
       </c>
-      <c r="F3">
-        <f>E3/E7</f>
-        <v>0.16</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F4">
-        <f>E4/E7</f>
-        <v>0.26</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5">
-        <f>COUNTIF($A$1:$B$25,A7)</f>
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <f>E5/E7</f>
-        <v>0.1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
       </c>
       <c r="E6">
-        <f>COUNTIF($A$1:$B$25,A13)</f>
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <f>E6/E7</f>
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f>SUM(E2:E6)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
@@ -925,23 +853,23 @@
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -949,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -962,18 +890,18 @@
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -981,18 +909,29 @@
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>